--- a/Doc/配置表/配置表/room.xlsx
+++ b/Doc/配置表/配置表/room.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="10830" tabRatio="788" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="关卡表" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
   <si>
     <t>1</t>
   </si>
@@ -1355,13 +1355,7 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>ceshi</t>
-  </si>
-  <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>bp_zx_001_03_chengshijinru</t>
   </si>
   <si>
     <t>v_test</t>
@@ -2836,10 +2830,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2889,11 +2883,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2904,30 +2897,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2941,25 +2913,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2974,9 +2944,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2996,15 +2966,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,7 +2988,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3025,22 +3026,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3120,7 +3114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3132,13 +3138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3156,7 +3180,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3168,67 +3240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,18 +3259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3277,18 +3283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3349,11 +3343,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3374,51 +3413,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3451,94 +3445,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3550,31 +3538,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3583,148 +3577,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3733,31 +3727,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3772,13 +3862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3787,61 +3871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3853,94 +3883,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3973,16 +3964,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4042,58 +4039,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4102,73 +4066,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4177,52 +4096,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4231,28 +4171,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4261,67 +4183,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4330,220 +4225,319 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4581,7 +4575,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="175" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="176" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4719,19 +4713,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4762,13 +4756,13 @@
     <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="常规 10 3" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="9"/>
-    <cellStyle name="差" xfId="10" builtinId="27"/>
-    <cellStyle name="常规 6 2 2 2 4 2" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="13"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="9"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2" xfId="10"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="常规 6 2 2 2 4 2" xfId="12"/>
+    <cellStyle name="千位分隔" xfId="13" builtinId="3"/>
+    <cellStyle name="常规 7 3" xfId="14"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="常规 7 2 2 2 2 3 2" xfId="16"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="17" builtinId="40"/>
@@ -4776,20 +4770,20 @@
     <cellStyle name="常规 6 2 2 4 2 2 2" xfId="19"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9"/>
     <cellStyle name="常规 6 3 2 2 2 2 2" xfId="21"/>
-    <cellStyle name="注释" xfId="22" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="23"/>
-    <cellStyle name="百分比 2" xfId="24"/>
+    <cellStyle name="百分比 2" xfId="22"/>
+    <cellStyle name="注释" xfId="23" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="24"/>
     <cellStyle name="警告文本" xfId="25" builtinId="11"/>
     <cellStyle name="常规 6 5" xfId="26"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
     <cellStyle name="标题 4" xfId="28" builtinId="19"/>
     <cellStyle name="标题" xfId="29" builtinId="15"/>
     <cellStyle name="常规 5 2" xfId="30"/>
-    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
-    <cellStyle name="常规 6 3 3 3" xfId="32"/>
-    <cellStyle name="常规 12" xfId="33"/>
-    <cellStyle name="百分比 2 2" xfId="34"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="35"/>
+    <cellStyle name="常规 12" xfId="31"/>
+    <cellStyle name="解释性文本" xfId="32" builtinId="53"/>
+    <cellStyle name="常规 6 3 3 3" xfId="33"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="34"/>
+    <cellStyle name="百分比 2 2" xfId="35"/>
     <cellStyle name="标题 1" xfId="36" builtinId="16"/>
     <cellStyle name="标题 2" xfId="37" builtinId="17"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="38" builtinId="32"/>
@@ -4797,8 +4791,8 @@
     <cellStyle name="常规 6 3 2 2" xfId="40"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="41" builtinId="44"/>
     <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="常规 26" xfId="43"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="44"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="43"/>
+    <cellStyle name="常规 26" xfId="44"/>
     <cellStyle name="计算" xfId="45" builtinId="22"/>
     <cellStyle name="常规 6 2 2 2 2 2 3 2" xfId="46"/>
     <cellStyle name="检查单元格" xfId="47" builtinId="23"/>
@@ -4815,8 +4809,8 @@
     <cellStyle name="适中" xfId="58" builtinId="28"/>
     <cellStyle name="常规 8 2" xfId="59"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="60" builtinId="46"/>
-    <cellStyle name="常规 2 2 2 4" xfId="61"/>
-    <cellStyle name="常规 6 2 3 2 2 3" xfId="62"/>
+    <cellStyle name="常规 6 2 3 2 2 3" xfId="61"/>
+    <cellStyle name="常规 2 2 2 4" xfId="62"/>
     <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
     <cellStyle name="常规 6 2 3 3" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="65" builtinId="30"/>
@@ -4834,31 +4828,31 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
     <cellStyle name="常规 2 2 2 8" xfId="78"/>
     <cellStyle name="强调文字颜色 5" xfId="79" builtinId="45"/>
-    <cellStyle name="常规 6 2 2 2 2 2 4" xfId="80"/>
-    <cellStyle name="常规 6 3 2 3 2 2 2" xfId="81"/>
+    <cellStyle name="常规 6 3 2 3 2 2 2" xfId="80"/>
+    <cellStyle name="常规 6 2 2 2 2 2 4" xfId="81"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="常规 6 3 2 3" xfId="83"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
     <cellStyle name="常规 2 2 2 9" xfId="85"/>
     <cellStyle name="强调文字颜色 6" xfId="86" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
-    <cellStyle name="常规 6 3 2 4" xfId="88"/>
-    <cellStyle name="常规 7 2 2 2 2" xfId="89"/>
+    <cellStyle name="常规 7 2 2 2 2" xfId="88"/>
+    <cellStyle name="常规 6 3 2 4" xfId="89"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
     <cellStyle name="常规 10 5" xfId="91"/>
     <cellStyle name="常规 10" xfId="92"/>
-    <cellStyle name="常规 10 2" xfId="93"/>
-    <cellStyle name="常规 6 2 4 3" xfId="94"/>
+    <cellStyle name="常规 6 2 4 3" xfId="93"/>
+    <cellStyle name="常规 10 2" xfId="94"/>
     <cellStyle name="常规 11 3" xfId="95"/>
-    <cellStyle name="常规 10 2 2" xfId="96"/>
+    <cellStyle name="常规 6 2 4 3 2" xfId="96"/>
     <cellStyle name="常规 2 7" xfId="97"/>
-    <cellStyle name="常规 6 2 4 3 2" xfId="98"/>
-    <cellStyle name="常规 10 4" xfId="99"/>
-    <cellStyle name="常规 9 2 2 2 2" xfId="100"/>
+    <cellStyle name="常规 10 2 2" xfId="98"/>
+    <cellStyle name="常规 9 2 2 2 2" xfId="99"/>
+    <cellStyle name="常规 10 4" xfId="100"/>
     <cellStyle name="常规 11" xfId="101"/>
     <cellStyle name="常规 11 2" xfId="102"/>
-    <cellStyle name="常规 11 4" xfId="103"/>
-    <cellStyle name="常规 6 2 3 3 2 2" xfId="104"/>
+    <cellStyle name="常规 6 2 3 3 2 2" xfId="103"/>
+    <cellStyle name="常规 11 4" xfId="104"/>
     <cellStyle name="常规 12 2" xfId="105"/>
     <cellStyle name="常规 12 3" xfId="106"/>
     <cellStyle name="常规 12 4" xfId="107"/>
@@ -4866,59 +4860,59 @@
     <cellStyle name="常规 13 2" xfId="109"/>
     <cellStyle name="常规 14" xfId="110"/>
     <cellStyle name="常规 14 2" xfId="111"/>
-    <cellStyle name="常规 15" xfId="112"/>
+    <cellStyle name="常规 6 3 2 2 3 2" xfId="112"/>
     <cellStyle name="常规 20" xfId="113"/>
-    <cellStyle name="常规 6 3 2 2 3 2" xfId="114"/>
-    <cellStyle name="常规 16" xfId="115"/>
-    <cellStyle name="常规 21" xfId="116"/>
-    <cellStyle name="常规 17" xfId="117"/>
+    <cellStyle name="常规 15" xfId="114"/>
+    <cellStyle name="常规 21" xfId="115"/>
+    <cellStyle name="常规 16" xfId="116"/>
+    <cellStyle name="常规 6 4 2" xfId="117"/>
     <cellStyle name="常规 22" xfId="118"/>
-    <cellStyle name="常规 6 4 2" xfId="119"/>
-    <cellStyle name="常规 18" xfId="120"/>
+    <cellStyle name="常规 17" xfId="119"/>
+    <cellStyle name="常规 6 4 3" xfId="120"/>
     <cellStyle name="常规 23" xfId="121"/>
-    <cellStyle name="常规 6 4 3" xfId="122"/>
-    <cellStyle name="常规 19" xfId="123"/>
+    <cellStyle name="常规 18" xfId="122"/>
+    <cellStyle name="常规 6 4 4" xfId="123"/>
     <cellStyle name="常规 24" xfId="124"/>
-    <cellStyle name="常规 6 4 4" xfId="125"/>
+    <cellStyle name="常规 19" xfId="125"/>
     <cellStyle name="常规 2" xfId="126"/>
     <cellStyle name="常规 2 10" xfId="127"/>
-    <cellStyle name="常规 2 11" xfId="128"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="129"/>
-    <cellStyle name="常规 2 12" xfId="130"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="131"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="128"/>
+    <cellStyle name="常规 2 11" xfId="129"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="130"/>
+    <cellStyle name="常规 2 12" xfId="131"/>
     <cellStyle name="常规 2 13" xfId="132"/>
     <cellStyle name="常规 2 14" xfId="133"/>
-    <cellStyle name="常规 2 15" xfId="134"/>
-    <cellStyle name="常规 2 20" xfId="135"/>
-    <cellStyle name="常规 6 2 2 2 2 4 2" xfId="136"/>
-    <cellStyle name="常规 7 2 3 2 2 2 2" xfId="137"/>
-    <cellStyle name="常规 2 16" xfId="138"/>
-    <cellStyle name="常规 2 21" xfId="139"/>
-    <cellStyle name="常规 2 17" xfId="140"/>
-    <cellStyle name="常规 2 22" xfId="141"/>
+    <cellStyle name="常规 7 2 3 2 2 2 2" xfId="134"/>
+    <cellStyle name="常规 6 2 2 2 2 4 2" xfId="135"/>
+    <cellStyle name="常规 2 20" xfId="136"/>
+    <cellStyle name="常规 2 15" xfId="137"/>
+    <cellStyle name="常规 2 21" xfId="138"/>
+    <cellStyle name="常规 2 16" xfId="139"/>
+    <cellStyle name="常规 2 22" xfId="140"/>
+    <cellStyle name="常规 2 17" xfId="141"/>
     <cellStyle name="常规 2 18" xfId="142"/>
-    <cellStyle name="常规 2 19" xfId="143"/>
-    <cellStyle name="常规 2 22 2" xfId="144"/>
+    <cellStyle name="常规 2 22 2" xfId="143"/>
+    <cellStyle name="常规 2 19" xfId="144"/>
     <cellStyle name="常规 2 2" xfId="145"/>
     <cellStyle name="常规 2 2 2" xfId="146"/>
     <cellStyle name="常规 2 2 2 10" xfId="147"/>
     <cellStyle name="常规 2 2 2 11" xfId="148"/>
     <cellStyle name="常规 2 2 2 12" xfId="149"/>
     <cellStyle name="常规 2 2 2 13" xfId="150"/>
-    <cellStyle name="常规 2 2 2 14" xfId="151"/>
-    <cellStyle name="常规 9 2 2 2" xfId="152"/>
-    <cellStyle name="常规 2 2 2 15" xfId="153"/>
-    <cellStyle name="常规 6 2 3 3 2" xfId="154"/>
-    <cellStyle name="常规 2 2 2 16" xfId="155"/>
-    <cellStyle name="常规 6 2 3 3 3" xfId="156"/>
+    <cellStyle name="常规 9 2 2 2" xfId="151"/>
+    <cellStyle name="常规 2 2 2 14" xfId="152"/>
+    <cellStyle name="常规 6 2 3 3 2" xfId="153"/>
+    <cellStyle name="常规 2 2 2 15" xfId="154"/>
+    <cellStyle name="常规 6 2 3 3 3" xfId="155"/>
+    <cellStyle name="常规 2 2 2 16" xfId="156"/>
     <cellStyle name="常规 2 2 2 17" xfId="157"/>
     <cellStyle name="常规 2 2 2 18" xfId="158"/>
     <cellStyle name="常规 2 2 2 2" xfId="159"/>
-    <cellStyle name="常规 2 2 2 3" xfId="160"/>
-    <cellStyle name="常规 6 2 3 2 2 2" xfId="161"/>
+    <cellStyle name="常规 6 2 3 2 2 2" xfId="160"/>
+    <cellStyle name="常规 2 2 2 3" xfId="161"/>
     <cellStyle name="常规 2 2 3" xfId="162"/>
-    <cellStyle name="常规 2 2 5" xfId="163"/>
-    <cellStyle name="常规 6 2 2 5 2" xfId="164"/>
+    <cellStyle name="常规 6 2 2 5 2" xfId="163"/>
+    <cellStyle name="常规 2 2 5" xfId="164"/>
     <cellStyle name="常规 2 2 6" xfId="165"/>
     <cellStyle name="常规 2 2 7" xfId="166"/>
     <cellStyle name="常规 2 2 8" xfId="167"/>
@@ -4929,11 +4923,11 @@
     <cellStyle name="常规 2 6" xfId="172"/>
     <cellStyle name="常规 2 8" xfId="173"/>
     <cellStyle name="常规 2 9" xfId="174"/>
-    <cellStyle name="常规 25" xfId="175"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 3 2" xfId="176"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 3 2" xfId="175"/>
+    <cellStyle name="常规 25" xfId="176"/>
     <cellStyle name="常规 25 2" xfId="177"/>
-    <cellStyle name="常规 27" xfId="178"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="179"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="178"/>
+    <cellStyle name="常规 27" xfId="179"/>
     <cellStyle name="常规 3" xfId="180"/>
     <cellStyle name="常规 3 2" xfId="181"/>
     <cellStyle name="常规 3 3" xfId="182"/>
@@ -4945,8 +4939,8 @@
     <cellStyle name="常规 4 3" xfId="188"/>
     <cellStyle name="常规 4 4" xfId="189"/>
     <cellStyle name="常规 4 5" xfId="190"/>
-    <cellStyle name="常规 4 6" xfId="191"/>
-    <cellStyle name="常规 6 3 3 2 2 2" xfId="192"/>
+    <cellStyle name="常规 6 3 3 2 2 2" xfId="191"/>
+    <cellStyle name="常规 4 6" xfId="192"/>
     <cellStyle name="常规 5" xfId="193"/>
     <cellStyle name="常规 5 3" xfId="194"/>
     <cellStyle name="常规 5 4" xfId="195"/>
@@ -4956,13 +4950,13 @@
     <cellStyle name="常规 6 2 2" xfId="199"/>
     <cellStyle name="常规 6 2 2 2" xfId="200"/>
     <cellStyle name="常规 6 2 2 2 2" xfId="201"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 2" xfId="202"/>
-    <cellStyle name="常规 6 2 2 3 2 3 2" xfId="203"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 2 2" xfId="204"/>
-    <cellStyle name="常规 6 3 5" xfId="205"/>
+    <cellStyle name="常规 6 2 2 3 2 3 2" xfId="202"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 2" xfId="203"/>
+    <cellStyle name="常规 6 3 5" xfId="204"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 2 2" xfId="205"/>
     <cellStyle name="常规 6 2 2 2 2 2 2 2 2 2" xfId="206"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 2 2 2 2" xfId="207"/>
-    <cellStyle name="常规 6 2 2 2 3 3" xfId="208"/>
+    <cellStyle name="常规 6 2 2 2 3 3" xfId="207"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 2 2 2 2" xfId="208"/>
     <cellStyle name="常规 6 2 2 2 2 2 2 2 3" xfId="209"/>
     <cellStyle name="常规 6 2 2 2 2 2 2 3" xfId="210"/>
     <cellStyle name="常规 6 2 2 2 2 2 3 2 2" xfId="211"/>
@@ -4970,8 +4964,8 @@
     <cellStyle name="常规 6 2 2 2 2 3 2 2" xfId="213"/>
     <cellStyle name="常规 6 2 2 2 2 3 2 2 2" xfId="214"/>
     <cellStyle name="常规 6 2 2 2 2 3 3" xfId="215"/>
-    <cellStyle name="常规 6 2 2 2 2 4" xfId="216"/>
-    <cellStyle name="常规 7 2 3 2 2 2" xfId="217"/>
+    <cellStyle name="常规 7 2 3 2 2 2" xfId="216"/>
+    <cellStyle name="常规 6 2 2 2 2 4" xfId="217"/>
     <cellStyle name="常规 6 2 2 2 3" xfId="218"/>
     <cellStyle name="常规 6 2 2 2 3 2" xfId="219"/>
     <cellStyle name="常规 6 2 2 2 3 2 2" xfId="220"/>
@@ -4993,26 +4987,26 @@
     <cellStyle name="常规 6 2 2 4" xfId="236"/>
     <cellStyle name="常规 6 2 2 4 2" xfId="237"/>
     <cellStyle name="常规 6 2 2 4 2 2" xfId="238"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="239"/>
-    <cellStyle name="常规 8 2 3 2 2" xfId="240"/>
+    <cellStyle name="常规 8 2 3 2 2" xfId="239"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="240"/>
     <cellStyle name="常规 6 2 2 5" xfId="241"/>
     <cellStyle name="常规 6 2 3 2" xfId="242"/>
     <cellStyle name="常规 6 2 3 2 2" xfId="243"/>
     <cellStyle name="常规 6 2 3 2 2 2 2" xfId="244"/>
     <cellStyle name="常规 6 2 3 2 2 2 2 2" xfId="245"/>
-    <cellStyle name="常规 6 2 3 2 2 2 2 2 2" xfId="246"/>
-    <cellStyle name="常规 7 2 2 4" xfId="247"/>
+    <cellStyle name="常规 7 2 2 4" xfId="246"/>
+    <cellStyle name="常规 6 2 3 2 2 2 2 2 2" xfId="247"/>
     <cellStyle name="常规 6 2 3 2 2 2 3" xfId="248"/>
     <cellStyle name="常规 6 2 3 2 2 3 2" xfId="249"/>
     <cellStyle name="常规 6 2 3 2 3" xfId="250"/>
     <cellStyle name="常规 6 2 3 2 3 2" xfId="251"/>
-    <cellStyle name="常规 6 2 3 2 3 2 2" xfId="252"/>
-    <cellStyle name="常规 7 2 2 2 2 2 3" xfId="253"/>
+    <cellStyle name="常规 7 2 2 2 2 2 3" xfId="252"/>
+    <cellStyle name="常规 6 2 3 2 3 2 2" xfId="253"/>
     <cellStyle name="常规 6 2 3 2 4" xfId="254"/>
     <cellStyle name="常规 6 2 3 3 2 2 2" xfId="255"/>
     <cellStyle name="常规 6 2 3 4 2" xfId="256"/>
-    <cellStyle name="常规 6 2 4" xfId="257"/>
-    <cellStyle name="常规 7 2 2 3 2 2 2" xfId="258"/>
+    <cellStyle name="常规 7 2 2 3 2 2 2" xfId="257"/>
+    <cellStyle name="常规 6 2 4" xfId="258"/>
     <cellStyle name="常规 6 2 4 2" xfId="259"/>
     <cellStyle name="常规 6 2 4 2 2 2" xfId="260"/>
     <cellStyle name="常规 6 2 4 2 2 2 2" xfId="261"/>
@@ -5024,10 +5018,10 @@
     <cellStyle name="常规 6 3 2" xfId="267"/>
     <cellStyle name="常规 6 3 2 2 2" xfId="268"/>
     <cellStyle name="常规 6 3 2 2 2 2" xfId="269"/>
-    <cellStyle name="常规 6 3 2 2 2 2 2 2" xfId="270"/>
-    <cellStyle name="常规 6 3 4" xfId="271"/>
-    <cellStyle name="常规 6 3 2 2 2 2 2 2 2" xfId="272"/>
-    <cellStyle name="常规 6 3 4 2" xfId="273"/>
+    <cellStyle name="常规 6 3 4" xfId="270"/>
+    <cellStyle name="常规 6 3 2 2 2 2 2 2" xfId="271"/>
+    <cellStyle name="常规 6 3 4 2" xfId="272"/>
+    <cellStyle name="常规 6 3 2 2 2 2 2 2 2" xfId="273"/>
     <cellStyle name="常规 6 3 2 2 2 2 3" xfId="274"/>
     <cellStyle name="常规 6 3 2 2 2 3 2" xfId="275"/>
     <cellStyle name="常规 6 3 2 2 3" xfId="276"/>
@@ -5036,13 +5030,13 @@
     <cellStyle name="常规 6 3 2 3 2" xfId="279"/>
     <cellStyle name="常规 6 3 2 3 2 2" xfId="280"/>
     <cellStyle name="常规 6 3 2 3 3" xfId="281"/>
-    <cellStyle name="常规 6 3 2 4 2" xfId="282"/>
-    <cellStyle name="常规 7 2 2 2 2 2" xfId="283"/>
+    <cellStyle name="常规 7 2 2 2 2 2" xfId="282"/>
+    <cellStyle name="常规 6 3 2 4 2" xfId="283"/>
     <cellStyle name="常规 6 3 3" xfId="284"/>
     <cellStyle name="常规 6 3 3 2" xfId="285"/>
     <cellStyle name="常规 6 3 3 2 2" xfId="286"/>
-    <cellStyle name="常规 6 3 3 2 2 2 2" xfId="287"/>
-    <cellStyle name="常规 8 4" xfId="288"/>
+    <cellStyle name="常规 8 4" xfId="287"/>
+    <cellStyle name="常规 6 3 3 2 2 2 2" xfId="288"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="289"/>
     <cellStyle name="常规 6 3 3 3 2" xfId="290"/>
     <cellStyle name="常规 6 3 4 2 2" xfId="291"/>
@@ -5051,8 +5045,8 @@
     <cellStyle name="常规 6 4 2 2 2" xfId="294"/>
     <cellStyle name="常规 6 4 2 2 2 2" xfId="295"/>
     <cellStyle name="常规 6 4 2 2 2 2 2" xfId="296"/>
-    <cellStyle name="常规 6 4 2 2 3" xfId="297"/>
-    <cellStyle name="常规 7 2 2 4 2" xfId="298"/>
+    <cellStyle name="常规 7 2 2 4 2" xfId="297"/>
+    <cellStyle name="常规 6 4 2 2 3" xfId="298"/>
     <cellStyle name="常规 6 4 2 3" xfId="299"/>
     <cellStyle name="常规 6 4 2 3 2" xfId="300"/>
     <cellStyle name="常规 6 4 3 2" xfId="301"/>
@@ -5063,10 +5057,10 @@
     <cellStyle name="常规 6 5 3" xfId="306"/>
     <cellStyle name="常规 6 6" xfId="307"/>
     <cellStyle name="常规 6 6 2" xfId="308"/>
-    <cellStyle name="常规 6 7" xfId="309"/>
-    <cellStyle name="常规 9 2 2" xfId="310"/>
-    <cellStyle name="常规 6 8" xfId="311"/>
-    <cellStyle name="常规 9 2 3" xfId="312"/>
+    <cellStyle name="常规 9 2 2" xfId="309"/>
+    <cellStyle name="常规 6 7" xfId="310"/>
+    <cellStyle name="常规 9 2 3" xfId="311"/>
+    <cellStyle name="常规 6 8" xfId="312"/>
     <cellStyle name="常规 6 9" xfId="313"/>
     <cellStyle name="常规 7" xfId="314"/>
     <cellStyle name="常规 7 2" xfId="315"/>
@@ -5078,8 +5072,8 @@
     <cellStyle name="常规 7 2 2 2 2 3" xfId="321"/>
     <cellStyle name="常规 7 2 2 2 3" xfId="322"/>
     <cellStyle name="常规 7 2 2 2 3 2" xfId="323"/>
-    <cellStyle name="常规 7 2 2 2 3 2 2" xfId="324"/>
-    <cellStyle name="常规 7 5" xfId="325"/>
+    <cellStyle name="常规 7 5" xfId="324"/>
+    <cellStyle name="常规 7 2 2 2 3 2 2" xfId="325"/>
     <cellStyle name="常规 7 2 2 2 4" xfId="326"/>
     <cellStyle name="常规 7 2 2 3" xfId="327"/>
     <cellStyle name="常规 7 2 2 3 2" xfId="328"/>
@@ -5472,12 +5466,12 @@
   <sheetPr/>
   <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -6374,17 +6368,17 @@
       <c r="G10" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="47" t="s">
-        <v>165</v>
+      <c r="H10" s="52" t="s">
+        <v>104</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>97</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="L10" s="48" t="s">
         <v>90</v>
@@ -6395,10 +6389,10 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S10" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T10" s="47">
         <v>1</v>
@@ -6466,31 +6460,31 @@
     <row r="1" s="1" customFormat="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="11.25" spans="2:10">
@@ -6498,28 +6492,28 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -6527,16 +6521,16 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -6546,22 +6540,22 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="G5" s="6">
         <v>80</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -6569,16 +6563,16 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="G6" s="6">
         <v>90</v>
@@ -6590,16 +6584,16 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
@@ -6614,20 +6608,20 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="G8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -6635,23 +6629,23 @@
         <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -6659,16 +6653,16 @@
         <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -6683,16 +6677,16 @@
         <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="G11" s="6">
         <v>5</v>
@@ -6705,16 +6699,16 @@
         <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
@@ -23104,16 +23098,16 @@
         <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G13" s="6">
         <v>10300</v>
@@ -23125,16 +23119,16 @@
         <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -23151,17 +23145,17 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -23169,16 +23163,16 @@
         <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="G16" s="6">
         <v>5</v>
@@ -23193,16 +23187,16 @@
         <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G17" s="6">
         <v>10</v>
@@ -23214,16 +23208,16 @@
         <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="G18" s="6">
         <v>5</v>
@@ -23238,16 +23232,16 @@
         <v>116</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G19" s="6">
         <v>120</v>
@@ -23259,22 +23253,22 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G20" s="6">
         <v>80</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -23282,16 +23276,16 @@
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G21" s="6">
         <v>70</v>
@@ -23303,16 +23297,16 @@
         <v>119</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G22" s="6">
         <v>7</v>
@@ -23327,22 +23321,22 @@
         <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="G23" s="6">
         <v>6</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -23350,23 +23344,23 @@
         <v>121</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -23377,13 +23371,13 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G25" s="6"/>
       <c r="I25" s="6"/>
@@ -23394,23 +23388,23 @@
         <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -39794,16 +39788,16 @@
         <v>124</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>569</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -39811,7 +39805,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="6"/>
       <c r="J27" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -56193,23 +56187,23 @@
         <v>125</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="G28" s="3">
         <v>3</v>
       </c>
       <c r="H28"/>
       <c r="I28" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -56217,23 +56211,23 @@
         <v>126</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29"/>
       <c r="I29" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -56241,19 +56235,19 @@
         <v>127</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -56261,16 +56255,16 @@
         <v>128</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="G31" s="7">
         <v>5</v>
@@ -56282,16 +56276,16 @@
         <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G32" s="7">
         <v>2</v>
@@ -56303,16 +56297,16 @@
         <v>130</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
@@ -56323,16 +56317,16 @@
         <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -56340,16 +56334,16 @@
         <v>132</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -56360,16 +56354,16 @@
         <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -56395,36 +56389,36 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>172</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -56441,7 +56435,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -56458,7 +56452,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -56472,7 +56466,7 @@
   <sheetPr/>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -56488,13 +56482,13 @@
     <row r="1" s="1" customFormat="1"/>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -56505,16 +56499,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -56523,16 +56517,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -56541,16 +56535,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -56559,16 +56553,16 @@
         <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" s="6">
         <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -56577,16 +56571,16 @@
         <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" s="6">
         <v>70</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -56595,16 +56589,16 @@
         <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E8" s="6">
         <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -56613,16 +56607,16 @@
         <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9" s="6">
         <v>90</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -56698,31 +56692,31 @@
     <row r="1" s="1" customFormat="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="11.25" spans="2:10">
@@ -56730,28 +56724,28 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="2:9">
@@ -56759,16 +56753,16 @@
         <v>1001</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>220</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G4" s="22"/>
       <c r="I4" s="22"/>
@@ -56778,16 +56772,16 @@
         <v>1002</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="2:9">
@@ -56795,23 +56789,23 @@
         <v>1003</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="2:9">
@@ -56819,23 +56813,23 @@
         <v>1004</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="G7" s="22">
         <v>1</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="2:9">
@@ -56843,23 +56837,23 @@
         <v>1005</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="2:9">
@@ -56867,23 +56861,23 @@
         <v>1006</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="1" spans="2:9">
@@ -56891,23 +56885,23 @@
         <v>1007</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="G10" s="22">
         <v>1</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="2:9">
@@ -56915,23 +56909,23 @@
         <v>1008</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" s="15" customFormat="1" spans="2:9">
@@ -56939,23 +56933,23 @@
         <v>1009</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G12" s="22">
         <v>2</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" s="15" customFormat="1" spans="2:9">
@@ -56963,23 +56957,23 @@
         <v>1010</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="1" spans="2:9">
@@ -56987,23 +56981,23 @@
         <v>1011</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G14" s="22">
         <v>1</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" s="15" customFormat="1" spans="2:9">
@@ -57011,23 +57005,23 @@
         <v>1012</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="1" spans="2:9">
@@ -57035,23 +57029,23 @@
         <v>1013</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G16" s="22">
         <v>1</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" s="15" customFormat="1" spans="2:9">
@@ -57059,23 +57053,23 @@
         <v>1014</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G17" s="22">
         <v>1</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="2:9">
@@ -57083,23 +57077,23 @@
         <v>1015</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G18" s="22">
         <v>1</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="1" spans="2:9">
@@ -57107,23 +57101,23 @@
         <v>1016</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G19" s="22">
         <v>1</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1" spans="2:9">
@@ -57131,23 +57125,23 @@
         <v>1017</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G20" s="22">
         <v>1</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" s="16" customFormat="1" spans="2:9">
@@ -57155,22 +57149,22 @@
         <v>1101</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="F21" s="23" t="s">
         <v>272</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>274</v>
       </c>
       <c r="G21" s="23">
         <v>80</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" s="16" customFormat="1" spans="2:9">
@@ -57178,22 +57172,22 @@
         <v>1102</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G22" s="23">
         <v>50</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" s="16" customFormat="1" spans="2:9">
@@ -57201,22 +57195,22 @@
         <v>1121</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G23" s="23">
         <v>50</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" s="17" customFormat="1" spans="2:9">
@@ -57224,16 +57218,16 @@
         <v>1201</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="F24" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>284</v>
       </c>
       <c r="G24" s="24">
         <v>90</v>
@@ -57245,16 +57239,16 @@
         <v>1202</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G25" s="24">
         <v>120</v>
@@ -57266,16 +57260,16 @@
         <v>1203</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G26" s="24">
         <v>150</v>
@@ -57287,16 +57281,16 @@
         <v>1204</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G27" s="24">
         <v>180</v>
@@ -57308,16 +57302,16 @@
         <v>1205</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G28" s="24">
         <v>240</v>
@@ -57329,16 +57323,16 @@
         <v>1206</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G29" s="24">
         <v>300</v>
@@ -57350,16 +57344,16 @@
         <v>1207</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G30" s="24"/>
       <c r="I30" s="24"/>
@@ -57369,16 +57363,16 @@
         <v>1208</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G31" s="24"/>
       <c r="I31" s="24"/>
@@ -57388,16 +57382,16 @@
         <v>1209</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G32" s="24"/>
       <c r="I32" s="24"/>
@@ -57407,16 +57401,16 @@
         <v>1210</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G33" s="24"/>
       <c r="I33" s="24"/>
@@ -57426,16 +57420,16 @@
         <v>1211</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G34" s="24"/>
       <c r="I34" s="24"/>
@@ -57445,23 +57439,23 @@
         <v>1301</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="F35" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>308</v>
       </c>
       <c r="G35" s="27">
         <v>6</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J35" s="26"/>
     </row>
@@ -57470,23 +57464,23 @@
         <v>1302</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G36" s="30">
         <v>8</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J36" s="29"/>
     </row>
@@ -57495,23 +57489,23 @@
         <v>1303</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G37" s="33">
         <v>10</v>
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J37" s="32"/>
     </row>
@@ -57520,22 +57514,22 @@
         <v>1401</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G38" s="34">
         <v>1</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" spans="2:9">
@@ -57543,22 +57537,22 @@
         <v>1402</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G39" s="34">
         <v>2</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" s="18" customFormat="1" spans="2:9">
@@ -57566,22 +57560,22 @@
         <v>1403</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G40" s="34">
         <v>3</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" s="18" customFormat="1" spans="2:9">
@@ -57589,22 +57583,22 @@
         <v>1404</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G41" s="34">
         <v>4</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" s="18" customFormat="1" spans="2:9">
@@ -57612,22 +57606,22 @@
         <v>1405</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G42" s="34">
         <v>5</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" s="18" customFormat="1" spans="2:9">
@@ -57635,22 +57629,22 @@
         <v>1406</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G43" s="34">
         <v>6</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" s="19" customFormat="1" spans="2:9">
@@ -57658,22 +57652,22 @@
         <v>1501</v>
       </c>
       <c r="C44" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>323</v>
-      </c>
       <c r="F44" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G44" s="35">
         <v>1</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" s="19" customFormat="1" spans="2:9">
@@ -57681,22 +57675,22 @@
         <v>1511</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G45" s="35">
         <v>1</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" s="19" customFormat="1" spans="2:9">
@@ -57704,22 +57698,22 @@
         <v>1512</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G46" s="35">
         <v>1</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" s="20" customFormat="1" spans="2:9">
@@ -57727,16 +57721,16 @@
         <v>1601</v>
       </c>
       <c r="C47" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>332</v>
-      </c>
       <c r="F47" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G47" s="36"/>
       <c r="I47" s="20">
@@ -57748,16 +57742,16 @@
         <v>1602</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
@@ -57770,16 +57764,16 @@
         <v>1603</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G49" s="36"/>
       <c r="I49" s="36">
@@ -57791,16 +57785,16 @@
         <v>1604</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G50" s="36"/>
       <c r="I50" s="36">
@@ -57812,16 +57806,16 @@
         <v>1701</v>
       </c>
       <c r="C51" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D51" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>340</v>
-      </c>
       <c r="F51" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" s="21" customFormat="1" spans="2:9">
@@ -57829,19 +57823,19 @@
         <v>1702</v>
       </c>
       <c r="C52" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I52" s="21" t="s">
         <v>341</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="53" s="21" customFormat="1" spans="2:9">
@@ -57849,19 +57843,19 @@
         <v>1703</v>
       </c>
       <c r="C53" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="I53" s="37" t="s">
         <v>344</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="54" s="21" customFormat="1" spans="2:6">
@@ -57869,16 +57863,16 @@
         <v>1751</v>
       </c>
       <c r="C54" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D54" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="F54" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" s="21" customFormat="1" spans="2:9">
@@ -57886,19 +57880,19 @@
         <v>1752</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -57906,23 +57900,23 @@
         <v>1801</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G56" s="25">
         <v>0</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J56" s="25"/>
     </row>
@@ -57931,16 +57925,16 @@
         <v>1901</v>
       </c>
       <c r="C57" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="D57" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>357</v>
-      </c>
       <c r="F57" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G57" s="28">
         <v>1</v>
@@ -57954,16 +57948,16 @@
         <v>2001</v>
       </c>
       <c r="C58" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E58" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="D58" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>360</v>
-      </c>
       <c r="F58" s="40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G58" s="41">
         <v>1</v>
@@ -57977,16 +57971,16 @@
         <v>2101</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
@@ -58021,10 +58015,10 @@
     <row r="1" s="1" customFormat="1"/>
     <row r="2" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -58035,10 +58029,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -58047,7 +58041,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>90</v>
@@ -58059,7 +58053,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>90</v>
@@ -58071,7 +58065,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>90</v>
@@ -58083,7 +58077,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>90</v>
@@ -58095,7 +58089,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>90</v>
@@ -58107,7 +58101,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>90</v>
@@ -58119,7 +58113,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>106</v>
@@ -58131,7 +58125,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>106</v>
@@ -58143,7 +58137,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>106</v>
@@ -58155,7 +58149,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>106</v>
@@ -58167,7 +58161,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>106</v>
@@ -58179,7 +58173,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>106</v>
@@ -58190,7 +58184,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>106</v>
@@ -58202,7 +58196,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>106</v>
@@ -58214,7 +58208,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>106</v>
@@ -58226,7 +58220,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>90</v>
@@ -58238,7 +58232,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>90</v>
@@ -58250,7 +58244,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>90</v>
@@ -58262,7 +58256,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>106</v>
@@ -58274,7 +58268,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>106</v>
@@ -58310,16 +58304,16 @@
     <row r="1" s="1" customFormat="1"/>
     <row r="2" spans="3:6">
       <c r="C2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="11.25" spans="2:6">
@@ -58327,16 +58321,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -58344,16 +58338,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -58361,16 +58355,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -58378,16 +58372,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -58395,16 +58389,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -58412,16 +58406,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -58429,16 +58423,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -58446,16 +58440,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -58463,16 +58457,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -58480,16 +58474,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -58497,16 +58491,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -58514,16 +58508,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -58531,16 +58525,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -58548,16 +58542,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -58565,16 +58559,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -58582,16 +58576,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -58599,16 +58593,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -58616,16 +58610,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -58633,16 +58627,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -58650,16 +58644,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -58667,16 +58661,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -58684,16 +58678,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -58701,16 +58695,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -58718,16 +58712,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -58735,16 +58729,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -58752,16 +58746,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -58769,16 +58763,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -58786,16 +58780,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -58803,16 +58797,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -58820,16 +58814,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -58837,1654 +58831,1654 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="50" spans="3:6">
       <c r="C50" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="C55" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="56" spans="3:6">
       <c r="C56" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="C57" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="C59" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="60" spans="3:6">
       <c r="C60" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="3:6">
       <c r="C61" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="3:6">
       <c r="C62" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="63" spans="3:6">
       <c r="C63" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="3:6">
       <c r="C64" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="3:6">
       <c r="C66" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="3:6">
       <c r="C67" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="3:6">
       <c r="C70" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="3:6">
       <c r="C71" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="3:6">
       <c r="C72" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="3:6">
       <c r="C73" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="3:6">
       <c r="C74" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="3:6">
       <c r="C76" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="3:6">
       <c r="C77" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="3:6">
       <c r="C78" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="3:6">
       <c r="C79" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="3:6">
       <c r="C80" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="3:6">
       <c r="C82" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="3:6">
       <c r="C83" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="3:6">
       <c r="C84" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="C86" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="3:6">
       <c r="C87" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="3:6">
       <c r="C88" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="3:6">
       <c r="C89" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="C91" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="C92" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="3:6">
       <c r="C94" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="3:6">
       <c r="C95" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="3:6">
       <c r="C96" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="3:6">
       <c r="C97" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="3:6">
       <c r="C98" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="3:6">
       <c r="C99" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="3:6">
       <c r="C100" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="3:6">
       <c r="C101" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="3:6">
       <c r="C102" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="3:6">
       <c r="C103" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="3:6">
       <c r="C104" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="3:6">
       <c r="C105" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="3:6">
       <c r="C106" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="3:6">
       <c r="C107" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="108" spans="3:6">
       <c r="C108" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="109" spans="3:6">
       <c r="C109" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="110" spans="3:6">
       <c r="C110" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="3:6">
       <c r="C111" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="3:6">
       <c r="C112" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="3:6">
       <c r="C113" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="3:6">
       <c r="C114" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="3:6">
       <c r="C115" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="3:6">
       <c r="C116" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="3:6">
       <c r="C117" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="3:6">
       <c r="C118" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="3:6">
       <c r="C119" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="3:6">
       <c r="C120" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="3:6">
       <c r="C121" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="3:6">
       <c r="C122" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="3:6">
       <c r="C123" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" spans="3:6">
       <c r="C124" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="3:6">
       <c r="C125" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="126" spans="3:6">
       <c r="C126" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="F126" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="3:6">
       <c r="C127" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="128" spans="3:6">
       <c r="C128" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="3:6">
       <c r="C129" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="130" spans="3:6">
       <c r="C130" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="3:6">
       <c r="C131" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="3:6">
       <c r="C132" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="3:6">
       <c r="C133" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="3:6">
       <c r="C134" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="3:6">
       <c r="C135" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="3:6">
       <c r="C136" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="3:6">
       <c r="C137" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="3:6">
       <c r="C138" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="3:6">
       <c r="C139" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140" spans="3:6">
       <c r="C140" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="3:6">
       <c r="C141" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D141" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="F141" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142" spans="3:6">
       <c r="C142" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="143" spans="3:6">
       <c r="C143" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="3:6">
       <c r="C144" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="145" spans="3:6">
       <c r="C145" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="3:6">
       <c r="C146" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F146" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="3:6">
       <c r="C147" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="3:6">
       <c r="C148" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="3:6">
       <c r="C149" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="F149" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="3:6">
       <c r="C150" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -60521,16 +60515,16 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>476</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="11.25" spans="2:6">
@@ -60538,16 +60532,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -60943,22 +60937,22 @@
         <v>44</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>486</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="11.25" spans="2:8">
@@ -60966,22 +60960,22 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -61004,7 +60998,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -61028,7 +61022,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -61052,7 +61046,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -61076,7 +61070,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -61100,7 +61094,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -61124,7 +61118,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -61148,7 +61142,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -61179,13 +61173,13 @@
   <sheetData>
     <row r="2" ht="12" spans="2:7">
       <c r="B2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>498</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -61196,10 +61190,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -61210,10 +61204,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -61224,10 +61218,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -61238,10 +61232,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -61252,10 +61246,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -61266,10 +61260,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -61280,10 +61274,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -61294,10 +61288,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -61308,10 +61302,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -61322,10 +61316,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -61336,10 +61330,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -61350,10 +61344,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -61364,10 +61358,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -61378,10 +61372,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -61392,10 +61386,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -61406,10 +61400,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -61420,10 +61414,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -61434,10 +61428,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -61448,10 +61442,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -61462,10 +61456,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -61476,10 +61470,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
